--- a/document/CrankPulse.xlsx
+++ b/document/CrankPulse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todat\vscode\PlatformIO\LittleCub_NeSimulator\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5CB6B0-1C65-4156-B91C-04ECC705FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE6F4A-58E1-40E3-BB04-1986A63C2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9178A7-3EC9-449A-92F1-2EE885FD7C02}"/>
   </bookViews>
@@ -30676,7 +30676,7 @@
   <dimension ref="A1:H2049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -71713,6 +71713,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/CrankPulse.xlsx
+++ b/document/CrankPulse.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todat\vscode\PlatformIO\LittleCub_NeSimulator\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE6F4A-58E1-40E3-BB04-1986A63C2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64D4C1-2746-464C-BC32-CF48A491141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B9178A7-3EC9-449A-92F1-2EE885FD7C02}"/>
   </bookViews>
   <sheets>
     <sheet name="クランクパルス" sheetId="1" r:id="rId1"/>
+    <sheet name="回路図" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30360,6 +30361,2769 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318654</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>301335</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="144" name="グループ化 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03083779-AD2B-9F12-2560-803CFF9C4244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4368140" y="0"/>
+          <a:ext cx="12806052" cy="8808720"/>
+          <a:chOff x="4334063" y="0"/>
+          <a:chExt cx="12698142" cy="8934616"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D9FA3-CCCF-0919-4DC9-1AAB1238A500}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4334063" y="0"/>
+            <a:ext cx="12698142" cy="8934616"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="乗算記号 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B83369E-5E5C-6311-23A2-54DDFDFEA441}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8534878" y="7558377"/>
+            <a:ext cx="293931" cy="300493"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMultiply">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13776"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="フリーフォーム: 図形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC6C190-8044-A03C-7EBA-D67277D8F4A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8895327" y="7700427"/>
+            <a:ext cx="378600" cy="469081"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 378373"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 467710"/>
+              <a:gd name="connsiteX1" fmla="*/ 0 w 378373"/>
+              <a:gd name="connsiteY1" fmla="*/ 467710 h 467710"/>
+              <a:gd name="connsiteX2" fmla="*/ 378373 w 378373"/>
+              <a:gd name="connsiteY2" fmla="*/ 467710 h 467710"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="378373" h="467710">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="467710"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="378373" y="467710"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67444FAC-9252-48DC-9CA7-8633C7D54742}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9259337" y="8080495"/>
+            <a:ext cx="769548" cy="172913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_D11</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="直線コネクタ 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438C8DED-D89F-FDC0-E5F7-608BF29D6F16}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11410871" y="7816041"/>
+            <a:ext cx="310241" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線コネクタ 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC44F81-72E4-4672-A9B4-645BE93F8C56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11410871" y="7241857"/>
+            <a:ext cx="310241" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="直線コネクタ 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E459CD-6E4A-42CA-A558-D8368CB02842}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11410871" y="7115047"/>
+            <a:ext cx="310241" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線コネクタ 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DAE361-0045-4A70-924E-75B52133A190}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11410871" y="6530352"/>
+            <a:ext cx="310241" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAAE8C2-700B-44BF-A7A1-9741B3E28DB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11410871" y="6303694"/>
+            <a:ext cx="310241" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7B52D9-FE46-4D3E-9996-9DB8537E0136}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11690488" y="6232810"/>
+            <a:ext cx="769545" cy="172912"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E666FBD-A620-4752-92B9-28F56EACF3FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11690485" y="6449485"/>
+            <a:ext cx="769548" cy="172913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_5V</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB263C92-E15A-42C5-AF54-2A58012546F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11690485" y="7183324"/>
+            <a:ext cx="769548" cy="172913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_A2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397C42DC-6DA7-46CD-8401-5B4515ACAC2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11690485" y="6975482"/>
+            <a:ext cx="769548" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_A3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB0EFAF-0816-4999-8E29-2AAC484F3E82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11690485" y="7719043"/>
+            <a:ext cx="769548" cy="172912"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_D13</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="フリーフォーム: 図形 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C39881-99EC-531B-AECA-EB9EE8E91D95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8461513" y="6367670"/>
+            <a:ext cx="503583" cy="278295"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 503583 w 503583"/>
+              <a:gd name="connsiteY0" fmla="*/ 278295 h 278295"/>
+              <a:gd name="connsiteX1" fmla="*/ 205409 w 503583"/>
+              <a:gd name="connsiteY1" fmla="*/ 278295 h 278295"/>
+              <a:gd name="connsiteX2" fmla="*/ 205409 w 503583"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 278295"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 503583"/>
+              <a:gd name="connsiteY3" fmla="*/ 0 h 278295"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="503583" h="278295">
+                <a:moveTo>
+                  <a:pt x="503583" y="278295"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="205409" y="278295"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="205409" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="正方形/長方形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A645777-58C3-47D9-B974-A2AEAD89A1E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7717216" y="6295951"/>
+            <a:ext cx="769228" cy="161508"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_D2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="143" name="直線コネクタ 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669678E6-C449-49FF-9349-B7BBF21ADF00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11404757" y="7466350"/>
+            <a:ext cx="308658" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7A3735-52C6-467F-801F-4D72AADF8738}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11696767" y="7413077"/>
+            <a:ext cx="769229" cy="162193"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_A0</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>316159</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19405</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90686FDF-58C0-17BE-F9FC-6C874C4E67B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14489359" y="2982723"/>
+          <a:ext cx="2402903" cy="4072500"/>
+          <a:chOff x="10079792" y="3016882"/>
+          <a:chExt cx="2393895" cy="4117169"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24688064-3393-87B3-9FD9-EDB7E633042A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect t="22375" b="5797"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10079792" y="3683567"/>
+            <a:ext cx="2393895" cy="3450484"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBF0BF2-932A-44AE-8BF5-5E1060BDA76A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10296964" y="3254768"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13D1C3A-7EFF-4EF5-9C81-A30771B1BDCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10509271" y="3254768"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_VCC</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E642E7D3-F479-4FB4-A539-699243CD0903}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11172294" y="3254768"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_RES</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681905F5-C3DF-4D32-AA82-62E433A08CD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11396440" y="3254769"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LCD_DC</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E980A209-A914-4BA3-98DE-378E8A58C52D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10957061" y="3254768"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LCD_SDA</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A8154B-DAA3-4AAB-AB84-47E345473A34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10741368" y="3254768"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_SCL</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>432526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>569616</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119607</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C0BE91-CEC7-CD87-417A-84E27F457A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14511577" y="149624"/>
+          <a:ext cx="1675218" cy="2836747"/>
+          <a:chOff x="10415039" y="1"/>
+          <a:chExt cx="1732142" cy="2753792"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4CA5D5-D83E-E6A3-B069-66268133C7A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect l="27741" t="24110" b="22779"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10415039" y="698916"/>
+            <a:ext cx="1732142" cy="1391478"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E54143-C515-0C41-A892-557D88428ADA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10762390" y="2343679"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE838F3-4850-42D4-93FB-8F4B596C3C00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11067188" y="2343679"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_VCC</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B8CC6F-06FA-45CD-BBAF-F228CA0A457E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10497347" y="2343679"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_RES</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB7324-9F87-460A-AC0A-121569FA4087}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10225679" y="2343679"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LCD_DC</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D19-EFEF-449E-9353-58B92AF046D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11345487" y="2343678"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LCD_SDA</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42452E6D-91F6-4C8A-B3CB-EEAF95E6D27D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11623780" y="2343679"/>
+            <a:ext cx="648000" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_SCL</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3B8F73-4029-42AF-93A2-D75B91FBC7F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10755655" y="300142"/>
+            <a:ext cx="772509" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40DAA58-3F4A-4418-BC3D-0AC5CB9265EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11020697" y="300144"/>
+            <a:ext cx="772512" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_5V</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D572FA0E-7BA3-4431-BA79-B02EC677AF86}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10450856" y="300144"/>
+            <a:ext cx="772512" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_A2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77D96BF-1E0B-4285-A9CC-473D7A8C7C9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="10179188" y="300144"/>
+            <a:ext cx="772512" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_A3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577971D2-6578-4D1F-967A-9B18F7ACF3CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11298996" y="300143"/>
+            <a:ext cx="772512" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_D11</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58162B56-8435-4125-9B6A-7FBA4E60305A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="11577289" y="300144"/>
+            <a:ext cx="772512" cy="172227"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>LCD_D13</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23938</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446661</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="136" name="グループ化 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C8EC32-9DC2-DE82-2D82-90ED89C83ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2048681" y="2611886"/>
+          <a:ext cx="2447466" cy="1438836"/>
+          <a:chOff x="2040997" y="4456579"/>
+          <a:chExt cx="2439782" cy="1465730"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="126" name="図 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D51C95-363E-B129-C0DB-C5E11311355F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="28443" t="2493" r="57159" b="82401"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2539254" y="4456579"/>
+            <a:ext cx="1374961" cy="1465730"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="正方形/長方形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FFC312-D668-4465-86A5-00E0443D6738}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3708433" y="5423647"/>
+            <a:ext cx="772346" cy="162677"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="正方形/長方形 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989DC126-38FE-4361-AAF5-DF2182200E10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2040997" y="5423647"/>
+            <a:ext cx="772346" cy="162677"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_D2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141296</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119494</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>226562</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="グループ化 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6791F0-E198-F2C0-1848-023214828607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1491125" y="4935680"/>
+          <a:ext cx="2677855" cy="3520482"/>
+          <a:chOff x="1243140" y="6825196"/>
+          <a:chExt cx="2667610" cy="3587718"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="124" name="図 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D50FFFC-4EC5-3DD2-5E01-8F4DD16E38A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="69177" r="6964" b="57368"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2260199" y="6825196"/>
+            <a:ext cx="1650551" cy="3002363"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="フリーフォーム: 図形 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97A42FF-FA8D-0611-6A21-91C0C836DF23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2689412" y="9368118"/>
+            <a:ext cx="484094" cy="950258"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 950258"/>
+              <a:gd name="connsiteX1" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY1" fmla="*/ 950258 h 950258"/>
+              <a:gd name="connsiteX2" fmla="*/ 484094 w 484094"/>
+              <a:gd name="connsiteY2" fmla="*/ 950258 h 950258"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="484094" h="950258">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="950258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="484094" y="950258"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF25ED9C-A572-47B3-89CE-C8C6250C2F7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3109938" y="10241769"/>
+            <a:ext cx="779954" cy="171145"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_5V</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="フリーフォーム: 図形 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7448EE9A-E548-45DD-BE2D-27B140D93AE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1963271" y="9287434"/>
+            <a:ext cx="546847" cy="1048871"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 950258"/>
+              <a:gd name="connsiteX1" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY1" fmla="*/ 950258 h 950258"/>
+              <a:gd name="connsiteX2" fmla="*/ 484094 w 484094"/>
+              <a:gd name="connsiteY2" fmla="*/ 950258 h 950258"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="484094" h="950258">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="950258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="484094" y="950258"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="フリーフォーム: 図形 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819C8B4B-65E8-4714-ADDB-18D5F49B3FE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1963270" y="9206752"/>
+            <a:ext cx="367552" cy="708213"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 950258"/>
+              <a:gd name="connsiteX1" fmla="*/ 0 w 484094"/>
+              <a:gd name="connsiteY1" fmla="*/ 950258 h 950258"/>
+              <a:gd name="connsiteX2" fmla="*/ 484094 w 484094"/>
+              <a:gd name="connsiteY2" fmla="*/ 950258 h 950258"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="484094" h="950258">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="950258"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="484094" y="950258"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="正方形/長方形 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AE5CE6-B215-4210-856B-0A05156FC0AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1244698" y="10240422"/>
+            <a:ext cx="772347" cy="161508"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Nano_A0</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="正方形/長方形 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860B19F9-B91D-4EE8-B6A2-A434DDDF052D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1243140" y="9825317"/>
+            <a:ext cx="772346" cy="162677"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Nano_GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -71716,4 +74480,20 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D885729-68C7-4A19-AB39-3E67D15FC0AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>